--- a/Precios Público.xlsx
+++ b/Precios Público.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Desktop\Dev.f\a3p Mina\startbootstrap-agency-gh-pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Desktop\Dev.f\a3p Mina\a3pMinatitlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>a3p Imperllanta Color 10 Años CB/19 LT</t>
   </si>
@@ -147,6 +148,15 @@
   </si>
   <si>
     <t>*Envíenos un mail con su requisición para cotizarle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerflex Poliflex de Secado Rapido </t>
+  </si>
+  <si>
+    <t>Menudeo</t>
+  </si>
+  <si>
+    <t>Mayoreo</t>
   </si>
 </sst>
 </file>
@@ -178,7 +188,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +201,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -237,12 +259,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -255,6 +292,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -538,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,4 +909,509 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1662.8083199999999</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1943.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2012.2559999999999</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2380.3200000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1504.7884799999999</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1745.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1798.7788800000001</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2113.4699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>927.55479999999989</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1046.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1195.4104</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1381.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>490.58169600000002</v>
+      </c>
+      <c r="C8" s="10">
+        <v>563.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16">
+        <v>590.23033599999997</v>
+      </c>
+      <c r="C9" s="16">
+        <v>690.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>445.52079999999995</v>
+      </c>
+      <c r="C10" s="10">
+        <v>506.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16">
+        <v>529.35979999999995</v>
+      </c>
+      <c r="C11" s="16">
+        <v>612.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>282.89239999999995</v>
+      </c>
+      <c r="C12" s="10">
+        <v>303.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16">
+        <v>360.56600000000003</v>
+      </c>
+      <c r="C13" s="16">
+        <v>400.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>720.22799999999995</v>
+      </c>
+      <c r="C14" s="10">
+        <v>819.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16">
+        <v>222.7696</v>
+      </c>
+      <c r="C15" s="16">
+        <v>237.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1204.5279999999998</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1393.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16">
+        <v>363.21079999999995</v>
+      </c>
+      <c r="C17" s="16">
+        <v>404.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1756.6415999999999</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2083.3000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="16">
+        <v>523.32560000000001</v>
+      </c>
+      <c r="C19" s="16">
+        <v>604.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1507.752</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1772.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="16">
+        <v>501.15039999999999</v>
+      </c>
+      <c r="C21" s="16">
+        <v>513.92999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1801.58</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2139.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="16">
+        <v>1991.2515999999998</v>
+      </c>
+      <c r="C25" s="16">
+        <v>2376.5700000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="10">
+        <v>591.3596</v>
+      </c>
+      <c r="C26" s="10">
+        <v>689.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="16">
+        <v>2480.7136</v>
+      </c>
+      <c r="C27" s="16">
+        <v>2988.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="10">
+        <v>2420.614</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2913.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="16">
+        <v>733.30879999999991</v>
+      </c>
+      <c r="C29" s="16">
+        <v>866.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="10">
+        <v>715.87399999999991</v>
+      </c>
+      <c r="C30" s="10">
+        <v>844.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="16">
+        <v>1454.175</v>
+      </c>
+      <c r="C31" s="16">
+        <v>1585.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="10">
+        <v>380.61079999999998</v>
+      </c>
+      <c r="C32" s="10">
+        <v>425.76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="16">
+        <v>109.63319999999999</v>
+      </c>
+      <c r="C33" s="16">
+        <v>112.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1632.114</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1742.18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="16">
+        <v>444.19039999999995</v>
+      </c>
+      <c r="C35" s="16">
+        <v>505.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="10">
+        <v>126.36039999999998</v>
+      </c>
+      <c r="C36" s="10">
+        <v>132.96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="16">
+        <v>1652.52</v>
+      </c>
+      <c r="C37" s="16">
+        <v>2031.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="10">
+        <v>493.13079999999997</v>
+      </c>
+      <c r="C38" s="10">
+        <v>566.41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="16">
+        <v>139.24799999999999</v>
+      </c>
+      <c r="C39" s="16">
+        <v>149.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="10">
+        <v>2450.1799999999998</v>
+      </c>
+      <c r="C40" s="10">
+        <v>2450.1799999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>